--- a/data/case1/5/Q_device_1.xlsx
+++ b/data/case1/5/Q_device_1.xlsx
@@ -53,43 +53,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.016569940673506964</v>
+        <v>-0.015260168459400781</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.01655717120011712</v>
+        <v>-0.015248036337763908</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0087143085721318649</v>
+        <v>-0.01186544631854642</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.0089171537543231098</v>
+        <v>-0.011937170043909848</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.018471789988907278</v>
+        <v>-0.011795376676902994</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.038039623913290077</v>
+        <v>-0.012025298542954676</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.053843897325796315</v>
+        <v>-0.074916174188800255</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.053797287206710641</v>
+        <v>-0.074933875490826862</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>-0.049924424234982279</v>
+      </c>
+      <c r="B5" s="0">
+        <v>-0.049929749451557613</v>
       </c>
     </row>
   </sheetData>
